--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\abstimmungsparolen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\stimmbeteiligung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16632" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16626" uniqueCount="155">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -552,53 +552,22 @@
     </r>
   </si>
   <si>
-    <t>Abstimmungsparolen der Parteien im Gemeinderat für Gemeindeabstimmungen, seit 2012</t>
-  </si>
-  <si>
     <t>Politik</t>
   </si>
   <si>
     <t>quartalsweise</t>
   </si>
   <si>
-    <t>parolen, politik, gemeinderat, partei, sachdaten, tabelle, abstimmung</t>
-  </si>
-  <si>
     <t>Stadtkanzlei, Allgemeine Verwaltung</t>
-  </si>
-  <si>
-    <t>Abstimmungstext</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Datum der Gemeindeabstimmung</t>
-  </si>
-  <si>
-    <t>Partei</t>
-  </si>
-  <si>
-    <t>Kürzel der Partei</t>
-  </si>
-  <si>
-    <t>Parole</t>
-  </si>
-  <si>
-    <t>Abstimmungsempfehlung der Partei (z.B. JA, NEIN, Stimmfreigabe)</t>
   </si>
   <si>
     <t>Aktualisierung</t>
   </si>
   <si>
-    <t>Der Name der Gemeindeabstimmung, über die abgestimmt wird/wurde. Mit diesem Feld kann die Verbindung zum Abstimmungsresultate-Datensatz hergestellt werden.</t>
+    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/portal/de/index/politik_u_recht/abstimmungen_u_wahlen.html)</t>
   </si>
   <si>
-    <t>Kurzer Titel der Gemeindeabstimmung</t>
-  </si>
-  <si>
-    <t>Die Parolen der Parteien werden jeweils ca. 4 Wochen vor dem Abstimmungstermin erfasst. Die tatsächlichen Abstimmungsergebnisse werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik-abstimmungen-seit-1933) zur Verfügung gestellt.
-**Wichtig:** Es werden nur Parolen der im [Gemeinderat](https://www.gemeinderat-zuerich.ch/) vertretenen Parteien (zum Zeitpunkt der Gemeindeabstimmung) erhoben.</t>
+    <t>Stimmbeteiligung in Prozent vor Urnengängen</t>
   </si>
   <si>
     <r>
@@ -609,7 +578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Alle Abstimmungsparolen für die Gemeindeabstimmungen in der Stadt Zürich. Es werden die Parolen der zum entsprechenden Zeitpunkt im Gemeinderat vertretenen Parteien erhoben. Die Angaben erfolgen ohne Gewähr.</t>
+      <t>Vor Urnengängen informiert die Stadtkanzleit regelmässig über den Stand der Stimmbeteiligung per brieflicher Abgabe.</t>
     </r>
     <r>
       <rPr>
@@ -624,25 +593,40 @@
     </r>
   </si>
   <si>
-    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/portal/de/index/politik_u_recht/abstimmungen_u_wahlen.html)</t>
+    <t>politik, gemeinderat, partei, sachdaten, tabelle, abstimmung, stimmbeteiligung, urnengang</t>
   </si>
   <si>
-    <t>datum</t>
+    <t>2021-heute</t>
   </si>
   <si>
-    <t>abstimmungstext</t>
+    <t>14.06.2021</t>
   </si>
   <si>
-    <t>partei</t>
+    <t>Die Stimmbeteiligung wird vor einem Urnengang regelmässig aktualisiert. Die tatsächlichen Abstimmungsergebnisse und die Stimmbeteiligung werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik-abstimmungen-seit-1933) zur Verfügung gestellt.</t>
   </si>
   <si>
-    <t>parole</t>
+    <t>Abstimmungs_Datum</t>
   </si>
   <si>
-    <t>2012-heute</t>
+    <t>Datum der Abstimmung</t>
   </si>
   <si>
-    <t>16.03.2021</t>
+    <t>Stimmbeteiligung_Prozent</t>
+  </si>
+  <si>
+    <t>Stimmbeteiligung in Prozent</t>
+  </si>
+  <si>
+    <t>Gibt den Anteil der Stimmberechtigten an, die an diesem Urnengang ihre Stimme abgegeben haben.</t>
+  </si>
+  <si>
+    <t>Aktualisierungs_Datum</t>
+  </si>
+  <si>
+    <t>Abstimmungsdatum</t>
+  </si>
+  <si>
+    <t>Gibt das Datum an, an dem die Stimmbeteiligung erhoben wurde.</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1235,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1278,7 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
@@ -1303,7 +1287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1296,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1330,7 +1314,7 @@
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>79</v>
@@ -1380,7 +1364,7 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
@@ -1398,7 +1382,7 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>76</v>
@@ -1416,7 +1400,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1450,7 +1434,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1468,7 +1452,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1504,7 +1488,7 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>82</v>
@@ -1513,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
@@ -1522,7 +1506,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -50734,22 +50718,22 @@
         <v>131</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -50806,30 +50790,30 @@
         <v>35</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>86</v>
@@ -50838,18 +50822,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>85</v>
@@ -50862,15 +50846,9 @@
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>145</v>
-      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="F30" s="4" t="s">
         <v>53</v>
       </c>
@@ -50879,15 +50857,9 @@
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>147</v>
-      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -51544,9 +51516,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51664,25 +51639,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51704,9 +51669,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16626" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16624" uniqueCount="155">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1543,7 +1543,9 @@
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>134</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
       </c>
@@ -50843,9 +50845,7 @@
       </c>
     </row>
     <row r="30" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="13"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -50854,17 +50854,13 @@
       </c>
     </row>
     <row r="31" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="13"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -51516,12 +51512,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51639,15 +51632,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51669,16 +51672,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16626" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16623" uniqueCount="156">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -570,29 +570,6 @@
     <t>Stimmbeteiligung in Prozent vor Urnengängen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vor Urnengängen informiert die Stadtkanzleit regelmässig über den Stand der Stimmbeteiligung per brieflicher Abgabe.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>politik, gemeinderat, partei, sachdaten, tabelle, abstimmung, stimmbeteiligung, urnengang</t>
   </si>
   <si>
@@ -627,6 +604,32 @@
   </si>
   <si>
     <t>Gibt das Datum an, an dem die Stimmbeteiligung erhoben wurde.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vor Urnengängen informiert die Stadtkanzlei regelmässig über den Stand der Stimmbeteiligung per brieflicher Abgabe.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>cc-zero</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1452,7 +1455,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1506,7 +1509,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -1543,7 +1546,9 @@
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>155</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
       </c>
@@ -50710,40 +50715,37 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:16384" ht="50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" ht="52" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="78" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="C22" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
@@ -50790,13 +50792,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -50807,13 +50809,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>86</v>
@@ -50827,13 +50829,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>85</v>
@@ -50843,9 +50845,7 @@
       </c>
     </row>
     <row r="30" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="13"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -50854,17 +50854,13 @@
       </c>
     </row>
     <row r="31" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="13"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -51516,12 +51512,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51639,15 +51632,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51669,16 +51672,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16624" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16623" uniqueCount="156">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -570,29 +570,6 @@
     <t>Stimmbeteiligung in Prozent vor Urnengängen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vor Urnengängen informiert die Stadtkanzleit regelmässig über den Stand der Stimmbeteiligung per brieflicher Abgabe.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>politik, gemeinderat, partei, sachdaten, tabelle, abstimmung, stimmbeteiligung, urnengang</t>
   </si>
   <si>
@@ -627,6 +604,32 @@
   </si>
   <si>
     <t>Gibt das Datum an, an dem die Stimmbeteiligung erhoben wurde.</t>
+  </si>
+  <si>
+    <t>cc-zero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vor Urnengängen informiert die Stadtkanzlei regelmässig über den Stand der Stimmbeteiligung per brieflicher Abgabe.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1452,7 +1455,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1506,7 +1509,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -1544,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
@@ -50712,37 +50715,34 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:16384" ht="50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" ht="52" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="78" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="C22" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -50792,13 +50792,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -50809,13 +50809,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>86</v>
@@ -50829,13 +50829,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>85</v>
@@ -51512,9 +51512,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51632,25 +51635,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51672,9 +51665,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16623" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16626" uniqueCount="159">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -631,6 +631,16 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Die Stimmbeteiligung vor einem Urnengang wird anhand der eingegangenen brieflichen Abstimmungsunterlagen bestimmt Die Stadtkanzlei misst dabei die Höhe der eingegangenen Couverts und schätzt die Anzahl Couverts. Die Prozentwerte sind somit nicht nicht sehr genau und mit Vorsicht zu verwenden.</t>
+  </si>
+  <si>
+    <t>Genauigkeit der Werte</t>
+  </si>
+  <si>
+    <t>Die Stimmbeteiligung wird von der Stadtkanzlei anhand der Höhe der eingegangen brieflichen Abstimmungsunterlagen geschätzt. Diese Methode ist sehr einfach und gibt Aufschluss über den generallen Trend der Stimmbeteiligung.
+Weil es sich dabei aber um Schätzungen handelt, sind die Werte mit Vorsicht zu verwenden.</t>
+  </si>
 </sst>
 </file>
 
@@ -1235,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD44"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1412,7 +1422,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1430,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
       </c>
@@ -50730,127 +50742,128 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="78" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:16384" ht="91" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:16384" ht="78" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D23" s="26"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>33</v>
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>147</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -50858,6 +50871,9 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
+      <c r="F31" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
@@ -50889,11 +50905,11 @@
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
     </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -50913,11 +50929,11 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
@@ -50935,7 +50951,13 @@
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -51512,12 +51534,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51635,15 +51654,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51665,16 +51694,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16626" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16627" uniqueCount="159">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Stimmbeteiligung in Prozent</t>
   </si>
   <si>
-    <t>Gibt den Anteil der Stimmberechtigten an, die an diesem Urnengang ihre Stimme abgegeben haben.</t>
-  </si>
-  <si>
     <t>Aktualisierungs_Datum</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   <si>
     <t>Die Stimmbeteiligung wird von der Stadtkanzlei anhand der Höhe der eingegangen brieflichen Abstimmungsunterlagen geschätzt. Diese Methode ist sehr einfach und gibt Aufschluss über den generallen Trend der Stimmbeteiligung.
 Weil es sich dabei aber um Schätzungen handelt, sind die Werte mit Vorsicht zu verwenden.</t>
+  </si>
+  <si>
+    <t>Gibt den geschätzten Anteil der Stimmberechtigten an, die an diesem Urnengang ihre Stimme abgegeben haben.</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1559,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
@@ -50743,11 +50743,14 @@
       </c>
     </row>
     <row r="22" spans="1:16384" ht="91" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B22" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
@@ -50817,7 +50820,7 @@
         <v>146</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>147</v>
@@ -50837,7 +50840,7 @@
         <v>149</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -50851,13 +50854,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>85</v>
@@ -51534,9 +51537,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51654,25 +51660,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51694,9 +51690,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -629,9 +629,6 @@
     </r>
   </si>
   <si>
-    <t>Die Stimmbeteiligung vor einem Urnengang wird anhand der eingegangenen brieflichen Abstimmungsunterlagen bestimmt Die Stadtkanzlei misst dabei die Höhe der eingegangenen Couverts und schätzt die Anzahl Couverts. Die Prozentwerte sind somit nicht nicht sehr genau und mit Vorsicht zu verwenden.</t>
-  </si>
-  <si>
     <t>Genauigkeit der Werte</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   </si>
   <si>
     <t>Gibt den geschätzten Anteil der Stimmberechtigten an, die an diesem Urnengang ihre Stimme abgegeben haben.</t>
+  </si>
+  <si>
+    <t>Die Stimmbeteiligung vor einem Urnengang wird anhand der eingegangenen brieflichen Abstimmungsunterlagen bestimmt Die Stadtkanzlei misst dabei die Höhe der eingegangenen Couverts und schätzt die Anzahl Couverts. Die Prozentwerte sind somit nicht sehr genau und mit Vorsicht zu verwenden.</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -50747,10 +50747,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
@@ -50840,7 +50840,7 @@
         <v>149</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -51537,12 +51537,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51660,15 +51657,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51690,16 +51697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="15" yWindow="-45" windowWidth="21225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16627" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16627" uniqueCount="158">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -632,14 +632,10 @@
     <t>Genauigkeit der Werte</t>
   </si>
   <si>
-    <t>Die Stimmbeteiligung wird von der Stadtkanzlei anhand der Höhe der eingegangen brieflichen Abstimmungsunterlagen geschätzt. Diese Methode ist sehr einfach und gibt Aufschluss über den generallen Trend der Stimmbeteiligung.
-Weil es sich dabei aber um Schätzungen handelt, sind die Werte mit Vorsicht zu verwenden.</t>
-  </si>
-  <si>
     <t>Gibt den geschätzten Anteil der Stimmberechtigten an, die an diesem Urnengang ihre Stimme abgegeben haben.</t>
   </si>
   <si>
-    <t>Die Stimmbeteiligung vor einem Urnengang wird anhand der eingegangenen brieflichen Abstimmungsunterlagen bestimmt Die Stadtkanzlei misst dabei die Höhe der eingegangenen Couverts und schätzt die Anzahl Couverts. Die Prozentwerte sind somit nicht sehr genau und mit Vorsicht zu verwenden.</t>
+    <t>Dieser Wert beruht auf der aktuellen Zahl der durch die Post verarbeiteten und der in den Briefkasten des Stadthauses eingelegten Antwortkuverts. Die effektive Stimm-/Wahlbeteiligung inkl. persönlicher Stimmabgabe an der Urne steht erst nach der Auszählung am Abstimmungssonntag fest.</t>
   </si>
 </sst>
 </file>
@@ -1248,21 +1244,21 @@
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.08203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="83.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="83.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="66.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1346,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -1404,7 +1400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1427,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1440,7 +1436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1458,7 +1454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -1476,7 +1472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
@@ -1530,7 +1526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -1548,7 +1544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>132</v>
       </c>
@@ -50699,14 +50695,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
@@ -50718,7 +50714,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
@@ -50727,7 +50723,7 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:16384" ht="52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
@@ -50742,7 +50738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="91" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
@@ -50750,12 +50746,12 @@
         <v>155</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
     </row>
-    <row r="23" spans="1:16384" ht="78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16384" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -50767,19 +50763,19 @@
       </c>
       <c r="D23" s="26"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>34</v>
       </c>
@@ -50794,7 +50790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="17" t="s">
         <v>31</v>
@@ -50812,7 +50808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
@@ -50829,7 +50825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -50840,7 +50836,7 @@
         <v>149</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -50849,7 +50845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -50869,7 +50865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -50878,85 +50874,85 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
     </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
     </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -50976,17 +50972,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="29" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="29" customWidth="1"/>
     <col min="4" max="4" width="74.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="89.08203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="89.125" style="29" customWidth="1"/>
     <col min="6" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -51003,7 +50999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -51018,7 +51014,7 @@
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="87.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
@@ -51033,7 +51029,7 @@
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -51048,7 +51044,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -51061,7 +51057,7 @@
       <c r="D5" s="23"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -51076,7 +51072,7 @@
       </c>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -51091,7 +51087,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -51106,7 +51102,7 @@
       </c>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -51121,7 +51117,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -51136,7 +51132,7 @@
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
@@ -51153,7 +51149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -51168,7 +51164,7 @@
       </c>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -51183,7 +51179,7 @@
       </c>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
@@ -51198,7 +51194,7 @@
       </c>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
@@ -51213,7 +51209,7 @@
       </c>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -51228,14 +51224,14 @@
       </c>
       <c r="E16" s="36"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
@@ -51248,7 +51244,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="17" t="s">
         <v>13</v>
@@ -51263,7 +51259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -51276,7 +51272,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="37"/>
     </row>
-    <row r="21" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
@@ -51289,7 +51285,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="1:5" ht="225" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
@@ -51302,7 +51298,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" ht="50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -51315,14 +51311,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
@@ -51335,7 +51331,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="17" t="s">
         <v>31</v>
@@ -51346,7 +51342,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
@@ -51361,7 +51357,7 @@
       </c>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
@@ -51376,7 +51372,7 @@
       </c>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -51391,7 +51387,7 @@
       </c>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -51406,7 +51402,7 @@
       </c>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
@@ -51421,7 +51417,7 @@
       </c>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -51436,7 +51432,7 @@
       </c>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -51451,7 +51447,7 @@
       </c>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -51466,7 +51462,7 @@
       </c>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -51481,49 +51477,49 @@
       </c>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="23"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="23"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -51537,9 +51533,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51657,25 +51656,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51697,9 +51686,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\stimmbeteiligung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE25B1B-032A-4765-905E-156EB0D832A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-45" windowWidth="21225" windowHeight="12540"/>
+    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -579,9 +580,6 @@
     <t>14.06.2021</t>
   </si>
   <si>
-    <t>Die Stimmbeteiligung wird vor einem Urnengang regelmässig aktualisiert. Die tatsächlichen Abstimmungsergebnisse und die Stimmbeteiligung werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik-abstimmungen-seit-1933) zur Verfügung gestellt.</t>
-  </si>
-  <si>
     <t>Abstimmungs_Datum</t>
   </si>
   <si>
@@ -637,11 +635,14 @@
   <si>
     <t>Dieser Wert beruht auf der aktuellen Zahl der durch die Post verarbeiteten und der in den Briefkasten des Stadthauses eingelegten Antwortkuverts. Die effektive Stimm-/Wahlbeteiligung inkl. persönlicher Stimmabgabe an der Urne steht erst nach der Auszählung am Abstimmungssonntag fest.</t>
   </si>
+  <si>
+    <t>Die Stimmbeteiligung wird vor einem Urnengang regelmässig aktualisiert. Die tatsächlichen Abstimmungsergebnisse und die Stimmbeteiligung werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik_abstimmungen_seit1933) zur Verfügung gestellt.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -996,10 +997,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,11 +1241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1306,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1427,7 +1428,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1555,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
@@ -50743,15 +50744,15 @@
         <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
     </row>
-    <row r="23" spans="1:16384" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16384" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -50759,7 +50760,7 @@
         <v>139</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D23" s="26"/>
     </row>
@@ -50813,13 +50814,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -50830,13 +50831,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>149</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -50850,13 +50851,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>85</v>
@@ -50965,7 +50966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -51542,6 +51543,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -51655,12 +51662,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
@@ -51670,6 +51671,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51683,19 +51699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\stimmbeteiligung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE25B1B-032A-4765-905E-156EB0D832A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE23ABC0-67A8-4A0A-AA85-D2DD0C9614F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,9 +565,6 @@
     <t>Aktualisierung</t>
   </si>
   <si>
-    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/portal/de/index/politik_u_recht/abstimmungen_u_wahlen.html)</t>
-  </si>
-  <si>
     <t>Stimmbeteiligung in Prozent vor Urnengängen</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>Die Stimmbeteiligung wird vor einem Urnengang regelmässig aktualisiert. Die tatsächlichen Abstimmungsergebnisse und die Stimmbeteiligung werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik_abstimmungen_seit1933) zur Verfügung gestellt.</t>
+  </si>
+  <si>
+    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/de/politik-und-verwaltung/politik-und-recht/abstimmen-waehlen.html)</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -1556,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
@@ -50732,7 +50732,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
@@ -50744,10 +50744,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
@@ -50760,7 +50760,7 @@
         <v>139</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="26"/>
     </row>
@@ -50814,13 +50814,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -50831,13 +50831,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -50851,13 +50851,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>85</v>
@@ -51543,12 +51543,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -51662,6 +51656,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
@@ -51671,21 +51671,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51699,4 +51684,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
+++ b/automation/stimmbeteiligung/Meta_Stimmbeteiligung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\stimmbeteiligung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE23ABC0-67A8-4A0A-AA85-D2DD0C9614F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0B34C-2CF9-4804-B606-123970DC81EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30060" yWindow="-7275" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -553,9 +553,6 @@
     </r>
   </si>
   <si>
-    <t>Politik</t>
-  </si>
-  <si>
     <t>quartalsweise</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/de/politik-und-verwaltung/politik-und-recht/abstimmen-waehlen.html)</t>
+  </si>
+  <si>
+    <t>politik</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="23" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>79</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>76</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>82</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -1556,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
@@ -50732,7 +50732,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
@@ -50744,10 +50744,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="28"/>
@@ -50757,10 +50757,10 @@
         <v>68</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="26"/>
     </row>
@@ -50814,13 +50814,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -50831,13 +50831,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>147</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -50851,13 +50851,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>85</v>
@@ -50969,7 +50969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -51543,6 +51543,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -51656,12 +51662,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
@@ -51671,6 +51671,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51684,19 +51699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>